--- a/nr-prepare-release-1.1.0-final/ig/ValueSet-as-vs-intern-id-systems.xlsx
+++ b/nr-prepare-release-1.1.0-final/ig/ValueSet-as-vs-intern-id-systems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T13:44:16+00:00</t>
+    <t>2025-01-27T14:03:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-prepare-release-1.1.0-final/ig/ValueSet-as-vs-intern-id-systems.xlsx
+++ b/nr-prepare-release-1.1.0-final/ig/ValueSet-as-vs-intern-id-systems.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T14:03:54+00:00</t>
+    <t>2025-01-27T16:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
